--- a/doc/KwlLüftunsmessungenWohnung.xlsx
+++ b/doc/KwlLüftunsmessungenWohnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\github\retomarek\esphome-comfoair\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4670880-A0D3-423C-8623-45287A55C3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED00C63-ED0F-4A86-926C-811AC1978D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25815" yWindow="0" windowWidth="25785" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19440" yWindow="2025" windowWidth="38700" windowHeight="15315" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorgehen-Fragen" sheetId="3" r:id="rId1"/>
@@ -1524,6 +1524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="16" fillId="35" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,22 +1537,18 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="35" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3129,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE3D101-012E-9E42-A8A0-8F2F945FCC0B}">
   <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3459,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:Z141"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -3529,26 +3529,26 @@
         <v>15</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="93" t="s">
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="93" t="s">
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="93" t="s">
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
     </row>
     <row r="6" spans="2:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
@@ -4274,26 +4274,26 @@
         <v>15</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="93" t="s">
+      <c r="F26" s="96"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="93" t="s">
+      <c r="I26" s="96"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="94"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="93" t="s">
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
     </row>
     <row r="27" spans="2:24" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
@@ -4346,7 +4346,7 @@
         <f>SUM(E29:E32)</f>
         <v>51</v>
       </c>
-      <c r="F28" s="100">
+      <c r="F28" s="93">
         <f>1/350*E28</f>
         <v>0.14571428571428571</v>
       </c>
@@ -4355,7 +4355,7 @@
         <f>SUM(H29:H32)</f>
         <v>114</v>
       </c>
-      <c r="I28" s="100">
+      <c r="I28" s="93">
         <f>1/350*H28</f>
         <v>0.32571428571428573</v>
       </c>
@@ -4364,7 +4364,7 @@
         <f>SUM(K29:K32)</f>
         <v>180</v>
       </c>
-      <c r="L28" s="100">
+      <c r="L28" s="93">
         <f>1/350*K28</f>
         <v>0.51428571428571423</v>
       </c>
@@ -4373,7 +4373,7 @@
         <f>SUM(N29:N32)</f>
         <v>330</v>
       </c>
-      <c r="O28" s="100">
+      <c r="O28" s="93">
         <f>1/350*N28</f>
         <v>0.94285714285714284</v>
       </c>
@@ -4662,7 +4662,7 @@
         <f>SUM(E35:E37)</f>
         <v>58</v>
       </c>
-      <c r="F34" s="100">
+      <c r="F34" s="93">
         <f>1/350*E34</f>
         <v>0.1657142857142857</v>
       </c>
@@ -4671,7 +4671,7 @@
         <f>SUM(H35:H37)</f>
         <v>110</v>
       </c>
-      <c r="I34" s="100">
+      <c r="I34" s="93">
         <f>1/350*H34</f>
         <v>0.31428571428571428</v>
       </c>
@@ -4680,7 +4680,7 @@
         <f>SUM(K35:K37)</f>
         <v>167</v>
       </c>
-      <c r="L34" s="100">
+      <c r="L34" s="93">
         <f>1/350*K34</f>
         <v>0.47714285714285715</v>
       </c>
@@ -4689,7 +4689,7 @@
         <f>SUM(N35:N37)</f>
         <v>317</v>
       </c>
-      <c r="O34" s="100">
+      <c r="O34" s="93">
         <f>1/350*N34</f>
         <v>0.90571428571428569</v>
       </c>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="101">
+      <c r="E39" s="94">
         <f>E28/E34</f>
         <v>0.87931034482758619</v>
       </c>
@@ -5069,26 +5069,26 @@
         <v>15</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="93" t="s">
+      <c r="E49" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="93" t="s">
+      <c r="F49" s="96"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I49" s="94"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="93" t="s">
+      <c r="I49" s="96"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="94"/>
-      <c r="M49" s="95"/>
-      <c r="N49" s="93" t="s">
+      <c r="L49" s="96"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
       <c r="Q49" s="59" t="s">
         <v>148</v>
       </c>
@@ -5884,26 +5884,26 @@
         <v>15</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="93" t="s">
+      <c r="E71" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="94"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="93" t="s">
+      <c r="F71" s="96"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I71" s="94"/>
-      <c r="J71" s="95"/>
-      <c r="K71" s="93" t="s">
+      <c r="I71" s="96"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="L71" s="94"/>
-      <c r="M71" s="95"/>
-      <c r="N71" s="93" t="s">
+      <c r="L71" s="96"/>
+      <c r="M71" s="97"/>
+      <c r="N71" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
+      <c r="O71" s="96"/>
+      <c r="P71" s="96"/>
       <c r="V71" s="62"/>
       <c r="X71" s="56"/>
     </row>
@@ -6580,26 +6580,26 @@
         <v>15</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="93" t="s">
+      <c r="E91" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="F91" s="94"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="93" t="s">
+      <c r="F91" s="96"/>
+      <c r="G91" s="97"/>
+      <c r="H91" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="I91" s="94"/>
-      <c r="J91" s="95"/>
-      <c r="K91" s="93" t="s">
+      <c r="I91" s="96"/>
+      <c r="J91" s="97"/>
+      <c r="K91" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="L91" s="94"/>
-      <c r="M91" s="95"/>
-      <c r="N91" s="93" t="s">
+      <c r="L91" s="96"/>
+      <c r="M91" s="97"/>
+      <c r="N91" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="O91" s="94"/>
-      <c r="P91" s="94"/>
+      <c r="O91" s="96"/>
+      <c r="P91" s="96"/>
     </row>
     <row r="92" spans="2:24" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B92" s="2"/>
@@ -7414,10 +7414,10 @@
       <c r="C112" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="96" t="s">
+      <c r="D112" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="E112" s="97"/>
+      <c r="E112" s="101"/>
       <c r="F112" s="66" t="s">
         <v>107</v>
       </c>
@@ -7753,26 +7753,26 @@
         <v>15</v>
       </c>
       <c r="D121" s="3"/>
-      <c r="E121" s="93" t="s">
+      <c r="E121" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F121" s="94"/>
-      <c r="G121" s="95"/>
-      <c r="H121" s="93" t="s">
+      <c r="F121" s="96"/>
+      <c r="G121" s="97"/>
+      <c r="H121" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I121" s="94"/>
-      <c r="J121" s="95"/>
-      <c r="K121" s="93" t="s">
+      <c r="I121" s="96"/>
+      <c r="J121" s="97"/>
+      <c r="K121" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="L121" s="94"/>
-      <c r="M121" s="95"/>
-      <c r="N121" s="93" t="s">
+      <c r="L121" s="96"/>
+      <c r="M121" s="97"/>
+      <c r="N121" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="O121" s="94"/>
-      <c r="P121" s="94"/>
+      <c r="O121" s="96"/>
+      <c r="P121" s="96"/>
     </row>
     <row r="122" spans="2:24" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B122" s="2"/>
@@ -7825,7 +7825,7 @@
         <f>SUM(E124:E127)</f>
         <v>69</v>
       </c>
-      <c r="F123" s="100">
+      <c r="F123" s="93">
         <f>1/350*E123</f>
         <v>0.19714285714285715</v>
       </c>
@@ -7834,7 +7834,7 @@
         <f>SUM(H124:H127)</f>
         <v>145</v>
       </c>
-      <c r="I123" s="100">
+      <c r="I123" s="93">
         <f>1/350*H123</f>
         <v>0.41428571428571431</v>
       </c>
@@ -7843,7 +7843,7 @@
         <f>SUM(K124:K127)</f>
         <v>230</v>
       </c>
-      <c r="L123" s="100">
+      <c r="L123" s="93">
         <f>1/350*K123</f>
         <v>0.65714285714285714</v>
       </c>
@@ -7852,7 +7852,7 @@
         <f>SUM(N124:N127)</f>
         <v>303</v>
       </c>
-      <c r="O123" s="100">
+      <c r="O123" s="93">
         <f>1/350*N123</f>
         <v>0.86571428571428566</v>
       </c>
@@ -8147,7 +8147,7 @@
         <f>SUM(E130:E132)</f>
         <v>68</v>
       </c>
-      <c r="F129" s="100">
+      <c r="F129" s="93">
         <f>1/350*E129</f>
         <v>0.19428571428571428</v>
       </c>
@@ -8156,7 +8156,7 @@
         <f>SUM(H130:H132)</f>
         <v>144</v>
       </c>
-      <c r="I129" s="100">
+      <c r="I129" s="93">
         <f>1/350*H129</f>
         <v>0.41142857142857142</v>
       </c>
@@ -8165,7 +8165,7 @@
         <f>SUM(K130:K132)</f>
         <v>226</v>
       </c>
-      <c r="L129" s="100">
+      <c r="L129" s="93">
         <f>1/350*K129</f>
         <v>0.64571428571428569</v>
       </c>
@@ -8174,7 +8174,7 @@
         <f>SUM(N130:N132)</f>
         <v>304</v>
       </c>
-      <c r="O129" s="100">
+      <c r="O129" s="93">
         <f>1/350*N129</f>
         <v>0.86857142857142855</v>
       </c>
@@ -8490,6 +8490,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="N121:P121"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="U112:Z112"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="E5:G5"/>
@@ -8506,16 +8516,6 @@
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="K49:M49"/>
     <mergeCell ref="N49:P49"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="U112:Z112"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="N121:P121"/>
-    <mergeCell ref="D112:E112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
